--- a/app/seeds/03_shop.xlsx
+++ b/app/seeds/03_shop.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="863"/>
+    <workbookView xWindow="14200" yWindow="0" windowWidth="21400" windowHeight="17740" tabRatio="863" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ショップメニュー1" sheetId="25" r:id="rId1"/>
     <sheet name="購入履歴" sheetId="12" r:id="rId2"/>
+    <sheet name="レシートログ" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="148">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -533,6 +534,105 @@
     <rPh sb="0" eb="1">
       <t>シュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ</t>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 備考</t>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーID</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fontana:1000001</t>
+  </si>
+  <si>
+    <t>ReceiptLog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシートログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: 未検証, 2: 検証失敗, 3: 検証成功</t>
+    <rPh sb="3" eb="6">
+      <t>ミケンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシートデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://developer.apple.com/library/mac/#documentation/NetworkingInternet/Conceptual/StoreKitGuide/VerifyingStoreReceipts/VerifyingStoreReceipts.html#//apple_ref/doc/uid/TP40008267-CH104-SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receipt_data</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -637,14 +737,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -664,13 +769,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1001,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -2008,7 +2123,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2243,4 +2358,275 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>41131.048611111109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>41133.416666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>41134.548611111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>41136.784722222219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>41136.416666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>41136.048611053244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" location="documentation/NetworkingInternet/Conceptual/StoreKitGuide/VerifyingStoreReceipts/VerifyingStoreReceipts.html#//apple_ref/doc/uid/TP40008267-CH104-SW1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/seeds/03_shop.xlsx
+++ b/app/seeds/03_shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="0" windowWidth="21400" windowHeight="17740" tabRatio="863" activeTab="2"/>
+    <workbookView xWindow="12380" yWindow="0" windowWidth="26300" windowHeight="23740" tabRatio="863" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ショップメニュー1" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -633,6 +633,29 @@
   </si>
   <si>
     <t>receipt_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012345678901234567890123456789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録後</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクゴ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -737,7 +760,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,8 +771,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -774,8 +802,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -786,6 +815,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1117,7 +1151,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2365,14 +2399,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
@@ -2413,6 +2447,12 @@
       </c>
       <c r="B5" s="4"/>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>5</v>
@@ -2477,7 +2517,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
@@ -2530,8 +2570,8 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
+      <c r="B18" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2544,8 +2584,8 @@
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2558,8 +2598,8 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2572,10 +2612,10 @@
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="7">
         <v>0</v>
       </c>
       <c r="D21" s="16">
@@ -2586,8 +2626,8 @@
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
+      <c r="B22" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2600,8 +2640,8 @@
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>

--- a/app/seeds/03_shop.xlsx
+++ b/app/seeds/03_shop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="0" windowWidth="26300" windowHeight="23740" tabRatio="863" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="863" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ショップメニュー1" sheetId="25" r:id="rId1"/>
@@ -95,12 +95,6 @@
     <t>日時</t>
   </si>
   <si>
-    <t>fontana:1000002</t>
-  </si>
-  <si>
-    <t>fontana:1000003</t>
-  </si>
-  <si>
     <t>サンプルデータ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,9 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000001</t>
-  </si>
-  <si>
     <t>ReceiptLog</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -657,6 +648,15 @@
       <t>トウロクゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>1000001</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2"/>
     </row>
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4"/>
     </row>
@@ -1223,15 +1223,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1252,41 +1252,41 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1296,41 +1296,41 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1343,25 +1343,25 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1369,7 +1369,7 @@
         <v>10001</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2">
         <v>10001</v>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="10" t="str">
         <f>CONCATENATE(B17, "の説明")</f>
@@ -1391,7 +1391,7 @@
         <v>10002</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2">
         <v>10002</v>
@@ -1401,7 +1401,7 @@
         <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="10" t="str">
         <f t="shared" ref="G18:G48" si="0">CONCATENATE(B18, "の説明")</f>
@@ -1413,7 +1413,7 @@
         <v>10003</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2">
         <v>10003</v>
@@ -1423,7 +1423,7 @@
         <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1435,7 +1435,7 @@
         <v>10004</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2">
         <v>10004</v>
@@ -1445,7 +1445,7 @@
         <v>560</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1457,7 +1457,7 @@
         <v>10005</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2">
         <v>10005</v>
@@ -1467,7 +1467,7 @@
         <v>1500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1479,7 +1479,7 @@
         <v>10006</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2">
         <v>10006</v>
@@ -1489,7 +1489,7 @@
         <v>9800</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1498,20 +1498,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2">
         <v>10007</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1523,7 +1523,7 @@
         <v>10008</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2">
         <v>10008</v>
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1545,7 +1545,7 @@
         <v>10009</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2">
         <v>10009</v>
@@ -1555,7 +1555,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1567,7 +1567,7 @@
         <v>10010</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2">
         <v>10010</v>
@@ -1577,7 +1577,7 @@
         <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1589,7 @@
         <v>10011</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2">
         <v>10011</v>
@@ -1599,7 +1599,7 @@
         <v>500</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1611,7 +1611,7 @@
         <v>10012</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2">
         <v>10012</v>
@@ -1621,7 +1621,7 @@
         <v>1000</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1633,7 +1633,7 @@
         <v>10013</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2">
         <v>10013</v>
@@ -1643,7 +1643,7 @@
         <v>5000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1652,20 +1652,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2">
         <v>10014</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1677,7 +1677,7 @@
         <v>10015</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2">
         <v>10015</v>
@@ -1687,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1699,7 +1699,7 @@
         <v>10016</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2">
         <v>10016</v>
@@ -1709,7 +1709,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1721,7 +1721,7 @@
         <v>10017</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2">
         <v>10017</v>
@@ -1731,7 +1731,7 @@
         <v>1000</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G33" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1743,7 +1743,7 @@
         <v>10018</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2">
         <v>10018</v>
@@ -1753,7 +1753,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G34" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1762,20 +1762,20 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2">
         <v>10019</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1784,20 +1784,20 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2">
         <v>10020</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
         <v>10021</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2">
         <v>20001</v>
@@ -1819,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1831,7 +1831,7 @@
         <v>10022</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2">
         <v>20002</v>
@@ -1841,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1853,7 +1853,7 @@
         <v>10023</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2">
         <v>20003</v>
@@ -1863,7 +1863,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1875,7 +1875,7 @@
         <v>10024</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2">
         <v>20004</v>
@@ -1885,7 +1885,7 @@
         <v>500</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1897,7 @@
         <v>10025</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="2">
         <v>20005</v>
@@ -1907,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1919,7 +1919,7 @@
         <v>10026</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2">
         <v>20006</v>
@@ -1929,7 +1929,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G42" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
         <v>10027</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2">
         <v>20007</v>
@@ -1951,7 +1951,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G43" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1963,7 +1963,7 @@
         <v>10028</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>20008</v>
@@ -1973,7 +1973,7 @@
         <v>1000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1985,7 +1985,7 @@
         <v>10029</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2">
         <v>20009</v>
@@ -1995,7 +1995,7 @@
         <v>10000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2007,7 +2007,7 @@
         <v>10030</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2">
         <v>20010</v>
@@ -2017,7 +2017,7 @@
         <v>100000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G46" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2026,20 +2026,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2">
         <v>20011</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G47" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2048,20 +2048,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2">
         <v>20012</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G48" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2073,10 +2073,10 @@
         <v>10036</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="11">
         <v>0.1</v>
@@ -2086,10 +2086,10 @@
         <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2097,10 +2097,10 @@
         <v>10037</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="11">
         <v>0.2</v>
@@ -2110,10 +2110,10 @@
         <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="83">
@@ -2121,10 +2121,10 @@
         <v>10038</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="11">
         <v>0.3</v>
@@ -2134,10 +2134,10 @@
         <v>1596</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2219,25 +2219,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -2267,17 +2267,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -2296,33 +2296,33 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
+      <c r="A15" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B15" s="8">
         <v>41121.8125</v>
@@ -2335,8 +2335,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
+      <c r="A16" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B16" s="8">
         <v>41121.8125</v>
@@ -2349,8 +2349,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+      <c r="A17" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B17" s="8">
         <v>41121.833333333336</v>
@@ -2363,8 +2363,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+      <c r="A18" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B18" s="8">
         <v>41121.875</v>
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2414,7 +2414,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2438,18 +2438,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -2475,59 +2475,59 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="18" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" s="18" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="18" customFormat="1">
@@ -2540,7 +2540,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -2549,29 +2549,29 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+      <c r="A18" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2581,11 +2581,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
+      <c r="A19" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2595,11 +2595,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
+      <c r="A20" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2609,11 +2609,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>135</v>
+      <c r="A21" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2623,11 +2623,11 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
+      <c r="A22" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2637,11 +2637,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
+      <c r="A23" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
